--- a/Projects/JNJUK/Data/SurveyTemplate.xlsx
+++ b/Projects/JNJUK/Data/SurveyTemplate.xlsx
@@ -55,19 +55,19 @@
     <t xml:space="preserve">What is the total # of J&amp;J GOLD secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the total # of JnJ branded, visible &amp; accessible BABY Secondary placements in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ branded, visible &amp; accessible BEAUTY Secondary placements in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ branded, visible &amp; accessible FEMCARE Secondary placements in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ branded, visible &amp; accessible ORALCARE Secondary placements in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ branded, visible &amp; accessible OTC Secondary placements in the store?</t>
+    <t xml:space="preserve">What is the total # of JnJ BABY branded, visible &amp; accessible Secondary placements in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of JnJ BEAUTY branded, visible &amp; accessible Secondary placements in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of JnJ FEMCARE branded, visible &amp; accessible Secondary placements in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of JnJ ORALCARE branded, visible &amp; accessible Secondary placements in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of JnJ OTC branded, visible &amp; accessible Secondary placements in the store?</t>
   </si>
   <si>
     <t xml:space="preserve">What is the total # of JnJ BABY secondary placements in the store?</t>
@@ -85,64 +85,64 @@
     <t xml:space="preserve">What is the total # of JnJ OTC secondary placements in the store?</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BABY secondary placements located in the Entrance in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BEAUTY secondary placements located in the Entrance in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD FEMCARE secondary placements located in the Entrance in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD ORALCARE secondary placements located in the Entrance in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD OTC secondary placements located in the Entrance in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BABY secondary placements located in the Cashier in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BEAUTY secondary placements located in the Cashier in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD FEMCARE secondary placements located in the Cashier in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD ORALCARE secondary placements located in the Cashier in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD OTC secondary placements located in the Cashier in the store?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BABY secondary placements located in the Pharmacy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BEAUTY secondary placements located in the Pharmacy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD FEMCARE secondary placements located in the Pharmacy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD ORALCARE secondary placements located in the Pharmacy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD OTC secondary placements located in the Pharmacy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BABY secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD BEAUTY secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD FEMCARE secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD ORALCARE secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the total # of JnJ GOLD OTC secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BABY secondary placements located in the Entrance in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BEAUTY secondary placements located in the Entrance in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD FEMCARE secondary placements located in the Entrance in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD ORALCARE secondary placements located in the Entrance in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD OTC secondary placements located in the Entrance in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BABY secondary placements located in the Cashier in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BEAUTY secondary placements located in the Cashier in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD FEMCARE secondary placements located in the Cashier in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD ORALCARE secondary placements located in the Cashier in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD OTC secondary placements located in the Cashier in the store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BABY secondary placements located in the Pharmacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BEAUTY secondary placements located in the Pharmacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD FEMCARE secondary placements located in the Pharmacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD ORALCARE secondary placements located in the Pharmacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD OTC secondary placements located in the Pharmacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BABY secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD BEAUTY secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD FEMCARE secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD ORALCARE secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total # of J&amp;J GOLD OTC secondary placements located in the Main Aisle in the store? (take images of the secondary via the survey)</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,15 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,15 +256,15 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.719387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,61 +274,60 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -345,7 +336,6 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -354,7 +344,6 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -363,7 +352,6 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -372,7 +360,6 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -406,7 +393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -414,7 +401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -422,7 +409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -430,7 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -438,7 +425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -446,7 +433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -454,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -462,7 +449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -470,7 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -478,7 +465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -486,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -494,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -502,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -510,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -518,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -526,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -534,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -542,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -550,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -558,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -566,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -574,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
